--- a/data/financial_statements/soci/VZ.xlsx
+++ b/data/financial_statements/soci/VZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2044 +593,2086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>35251000000</v>
+      </c>
+      <c r="C2">
         <v>34241000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>33789000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>33554000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>34067000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>32915000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>33764000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>32867000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>34692000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>31543000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>30447000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>31610000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>34775000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>32894000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>32071000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>32128000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>34281000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>32607000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>32203000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>31772000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>33955000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>31717000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>30548000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>29814000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>32340000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>30937000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>30532000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>32171000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>34254000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>33158000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>32224000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>31984000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>33192000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>31586000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>31483000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>30818000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>31065000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>30279000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>29786000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>29420000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0348</v>
+      </c>
+      <c r="C3">
         <v>0.0403</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0007</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0209</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.018</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0435</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1089</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0398</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0024</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0411</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0506</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0161</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0144</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.008800000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0041</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0112</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.009599999999999999</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0281</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0542</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.06569999999999999</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0499</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0252</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0005</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0733</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0559</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.067</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0525</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0058</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.032</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0498</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0235</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0378</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.06850000000000001</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0432</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.057</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0475</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0339</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0439</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0432</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0417</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>15762000000</v>
+      </c>
+      <c r="C4">
         <v>14601000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14420000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>14350000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14996000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13528000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14255000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13522000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14822000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12334000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11749000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>12296000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>15631000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13384000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12721000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12990000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15291000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>13331000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>13631000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>13255000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>15558000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>12974000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>12484000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>12047000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>15639000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>12229000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>12221000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>12612000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>14707000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>13305000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>12449000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>12096000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>14403000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>12252000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>12087000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>11189000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>11962000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>10960000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>11033000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>10932000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>19489000000</v>
+      </c>
+      <c r="C5">
         <v>19640000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19369000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19204000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>19071000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>19387000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19509000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19345000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19870000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>19209000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>18698000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>19314000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19144000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19510000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>19350000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>19138000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>18990000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>19276000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>18572000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>18517000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>18397000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>18743000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>18064000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>17767000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>16701000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>18708000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>18311000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>19559000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>19547000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>19853000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>19775000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>19888000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>18789000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>19334000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>19396000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>19629000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>19103000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>19319000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>18753000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>18488000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>8046000000</v>
+      </c>
+      <c r="C6">
         <v>7422000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7496000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7172000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7412000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6521000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7324000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7401000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8493000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7339000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7156000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8585000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8214000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7216000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7268000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7198000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>9410000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>7224000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7605000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>6844000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>8480000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7483000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5883000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6746000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2501000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>8226000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>9775000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7600000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>5764000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>8309000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7974000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7939000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>16857000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8277000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>7550000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8332000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2857000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8037000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8047000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8148000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>7225000000</v>
+      </c>
+      <c r="C7">
         <v>7894000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7552000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7796000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7608000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8905000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8165000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7770000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7180000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7678000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7361000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6579000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6639000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8180000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7850000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>7709000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>637000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7675000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6617000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7349000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5461000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>6988000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8014000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>6962000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>10213000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>6540000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>4554000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7942000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>9744000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7535000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>7821000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>7960000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-2136000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>6890000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>7685000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7160000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>12063000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>7128000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6555000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>6222000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>937000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>785000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>786000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>739000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>801000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>844000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1101000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1080000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1044000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1116000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1034000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1159000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1105000000</v>
+      </c>
+      <c r="C9">
         <v>937000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>785000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>786000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>739000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>801000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>844000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1101000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1080000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1044000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1089000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1034000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1159000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1146000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1215000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1210000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1199000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1211000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1222000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1201000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1219000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1164000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1218000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1132000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1137000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1038000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1013000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1188000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1178000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1202000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1208000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1332000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1282000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1255000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1164000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1214000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1061000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>555000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>514000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>537000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1586000000</v>
+      </c>
+      <c r="C10">
         <v>-1374000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-695000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1713000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-1464000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-531000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-341000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-692000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-927000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1827000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1174000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-903000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-2927000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-1257000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-2540000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-921000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>730000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-1000000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-1090000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-1295000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-2527000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-1477000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-1047000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-1780000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-3264000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-964000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-2859000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-1176000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-1166000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-1169000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-1194000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-1291000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-1750000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-1232000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-1141000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-206000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-1303000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-516000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-369000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-503000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>8811000000</v>
+      </c>
+      <c r="C11">
         <v>6520000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6857000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6083000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6144000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8374000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7824000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7078000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6253000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5851000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6187000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5676000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3712000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6923000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5310000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6788000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1367000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>6675000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5527000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6054000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2934000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>5511000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>6967000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5182000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>6949000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5576000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1695000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6766000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>8578000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>6366000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>6627000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>6669000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-3886000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>5658000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>6544000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6954000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>10760000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>6612000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>6186000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>5719000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>2113000000</v>
+      </c>
+      <c r="C12">
         <v>1496000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1542000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1372000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1407000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1820000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1875000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1700000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1535000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1347000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1348000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1389000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-1505000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1586000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1236000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1628000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-698000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1613000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1281000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1388000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-15849000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1775000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2489000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1629000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2349000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1829000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>864000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2336000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3065000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2195000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2274000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2331000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1738000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1864000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2220000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>968000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2844000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1034000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>988000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>864000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>6698000000</v>
+      </c>
+      <c r="C13">
         <v>5024000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5315000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4711000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4737000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6554000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5949000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5378000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4718000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4504000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4839000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4287000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5217000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>5337000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>4074000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>5160000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2065000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5062000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>4246000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4666000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>18783000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>3736000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4478000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3553000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>4600000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3747000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>831000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>4430000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5513000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>4171000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>4353000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>4338000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-2148000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>3794000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>4324000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>5986000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7916000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>5578000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>5198000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>4855000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>121000000</v>
+      </c>
+      <c r="C14">
         <v>124000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>116000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>131000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>124000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>147000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>149000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>133000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>130000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>147000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>139000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>131000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>122000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>143000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>130000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>128000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>126000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>138000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>126000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>121000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>114000000</v>
-      </c>
-      <c r="V14">
-        <v>116000000</v>
       </c>
       <c r="W14">
         <v>116000000</v>
       </c>
       <c r="X14">
+        <v>116000000</v>
+      </c>
+      <c r="Y14">
         <v>103000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>105000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>127000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>129000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>120000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>122000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>133000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>122000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>119000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>83000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>99000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>110000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2039000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2849000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3346000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2952000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2903000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>6577000000</v>
+      </c>
+      <c r="C15">
         <v>4900000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5199000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4580000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4613000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6407000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5800000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5245000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4588000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4357000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4700000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4156000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5095000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5194000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3944000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>5032000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1939000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4924000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4120000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4545000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>18669000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3620000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>4362000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3450000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>4495000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3620000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>702000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>4310000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>5391000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>4038000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>4231000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4219000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-2231000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3695000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4214000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3947000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>5067000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2232000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2246000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1952000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.17</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.24</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.09</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.11</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.55</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.27</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.11</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.05</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.14</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.23</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.26</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.95</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.22</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.47</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.19</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.11</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>4.57</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.89</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.07</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.85</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.1</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.89</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.17</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.06</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.32</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.99</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.04</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.03</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-0.54</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.89</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.02</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.15</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.77</v>
-      </c>
-      <c r="AL16">
-        <v>0.78</v>
       </c>
       <c r="AM16">
         <v>0.78</v>
       </c>
       <c r="AN16">
+        <v>0.78</v>
+      </c>
+      <c r="AO16">
         <v>0.68</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1.17</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.09</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.11</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.55</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.27</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.11</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.05</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.13</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.23</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.25</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.95</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.22</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.47</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.19</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.11</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4.56</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.89</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.07</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.84</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.1</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.89</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.17</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1.06</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.32</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.99</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1.04</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1.02</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-0.54</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.89</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1.01</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1.15</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1.76</v>
-      </c>
-      <c r="AL17">
-        <v>0.78</v>
       </c>
       <c r="AM17">
         <v>0.78</v>
       </c>
       <c r="AN17">
+        <v>0.78</v>
+      </c>
+      <c r="AO17">
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>4204000000</v>
+      </c>
+      <c r="C18">
         <v>4202000000</v>
-      </c>
-      <c r="C18">
-        <v>4201000000</v>
       </c>
       <c r="D18">
         <v>4201000000</v>
       </c>
       <c r="E18">
+        <v>4201000000</v>
+      </c>
+      <c r="F18">
         <v>4148000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4142000000</v>
-      </c>
-      <c r="G18">
-        <v>4141000000</v>
       </c>
       <c r="H18">
         <v>4141000000</v>
       </c>
       <c r="I18">
-        <v>4140000000</v>
+        <v>4141000000</v>
       </c>
       <c r="J18">
         <v>4140000000</v>
       </c>
       <c r="K18">
-        <v>4139000000</v>
+        <v>4140000000</v>
       </c>
       <c r="L18">
         <v>4139000000</v>
       </c>
       <c r="M18">
-        <v>4138000000</v>
+        <v>4139000000</v>
       </c>
       <c r="N18">
         <v>4138000000</v>
@@ -2528,102 +2684,105 @@
         <v>4138000000</v>
       </c>
       <c r="Q18">
+        <v>4138000000</v>
+      </c>
+      <c r="R18">
         <v>4128000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4136000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>4135000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4104000000</v>
-      </c>
-      <c r="U18">
-        <v>4084000000</v>
       </c>
       <c r="V18">
         <v>4084000000</v>
       </c>
       <c r="W18">
-        <v>4082000000</v>
+        <v>4084000000</v>
       </c>
       <c r="X18">
         <v>4082000000</v>
       </c>
       <c r="Y18">
+        <v>4082000000</v>
+      </c>
+      <c r="Z18">
         <v>4080000000</v>
-      </c>
-      <c r="Z18">
-        <v>4079000000</v>
       </c>
       <c r="AA18">
         <v>4079000000</v>
       </c>
       <c r="AB18">
+        <v>4079000000</v>
+      </c>
+      <c r="AC18">
         <v>4080000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>4085000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>4072000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>4079000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4116000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>3974000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>4152000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>4147000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>3425000000</v>
-      </c>
-      <c r="AK18">
-        <v>2866000000</v>
       </c>
       <c r="AL18">
         <v>2866000000</v>
       </c>
       <c r="AM18">
+        <v>2866000000</v>
+      </c>
+      <c r="AN18">
         <v>2865000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2866000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>4207000000</v>
+      </c>
+      <c r="C19">
         <v>4204000000</v>
-      </c>
-      <c r="C19">
-        <v>4202000000</v>
       </c>
       <c r="D19">
         <v>4202000000</v>
       </c>
       <c r="E19">
+        <v>4202000000</v>
+      </c>
+      <c r="F19">
         <v>4150000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4144000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4143000000</v>
-      </c>
-      <c r="H19">
-        <v>4142000000</v>
       </c>
       <c r="I19">
         <v>4142000000</v>
@@ -2632,1593 +2791,1626 @@
         <v>4142000000</v>
       </c>
       <c r="K19">
-        <v>4141000000</v>
+        <v>4142000000</v>
       </c>
       <c r="L19">
         <v>4141000000</v>
       </c>
       <c r="M19">
-        <v>4140000000</v>
+        <v>4141000000</v>
       </c>
       <c r="N19">
         <v>4140000000</v>
       </c>
       <c r="O19">
+        <v>4140000000</v>
+      </c>
+      <c r="P19">
         <v>4139000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4140000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4132000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4140000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>4139000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4107000000</v>
-      </c>
-      <c r="U19">
-        <v>4089000000</v>
       </c>
       <c r="V19">
         <v>4089000000</v>
       </c>
       <c r="W19">
-        <v>4087000000</v>
+        <v>4089000000</v>
       </c>
       <c r="X19">
         <v>4087000000</v>
       </c>
       <c r="Y19">
-        <v>4086000000</v>
+        <v>4087000000</v>
       </c>
       <c r="Z19">
         <v>4086000000</v>
       </c>
       <c r="AA19">
-        <v>4085000000</v>
+        <v>4086000000</v>
       </c>
       <c r="AB19">
         <v>4085000000</v>
       </c>
       <c r="AC19">
+        <v>4085000000</v>
+      </c>
+      <c r="AD19">
         <v>4093000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>4078000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>4085000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>4121000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>3981000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>4159000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>4153000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3430000000</v>
-      </c>
-      <c r="AK19">
-        <v>2874000000</v>
       </c>
       <c r="AL19">
         <v>2874000000</v>
       </c>
       <c r="AM19">
-        <v>2872000000</v>
+        <v>2874000000</v>
       </c>
       <c r="AN19">
         <v>2872000000</v>
       </c>
+      <c r="AO19">
+        <v>2872000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="C20">
         <v>0.5736</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.5732</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.5723</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.5598</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.589</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.5778</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5886</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.5728</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.609</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.6141</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.611</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.5505</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.5931</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.6032999999999999</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.5957</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.554</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.5911999999999999</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.5767</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.5828</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.5417999999999999</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.5909</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.5913</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.5959</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.5164</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.6047</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.5997</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.608</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.5706</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.5987</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.6137</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.6218</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.5661</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.6121</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.6161</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.6369</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.6149</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.638</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.6296</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.6284</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.205</v>
+      </c>
+      <c r="C21">
         <v>0.2305</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2235</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2323</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2233</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2705</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2418</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.2364</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.207</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2434</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2418</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2081</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1909</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2487</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2448</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2399</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.0186</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2354</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2055</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2313</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1608</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2203</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2623</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2335</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3158</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2114</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1492</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2469</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2845</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2272</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2427</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2489</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-0.0644</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2181</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2441</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2323</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3883</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2354</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2201</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2115</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
         <v>0.1904</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2029</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1813</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1804</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2544</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2317</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2154</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1802</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1855</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2032</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1796</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1067</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2105</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1656</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2113</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.0399</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2047</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1716</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1905</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0864</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1738</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2281</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1738</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2149</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1802</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.0555</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2103</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2504</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.192</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2057</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2085</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-0.1171</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1791</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2079</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2256</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.3464</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2184</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2077</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1944</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1866</v>
+      </c>
+      <c r="C23">
         <v>0.1431</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1539</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1365</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1354</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1947</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1718</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1596</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1322</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1381</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1544</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1315</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1465</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1579</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.123</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1566</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.0566</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.151</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1279</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1431</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.5498</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1141</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1428</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1157</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.139</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.117</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.023</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.134</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1574</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1218</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1313</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1319</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-0.0672</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.117</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1339</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1281</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1631</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.0737</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.07539999999999999</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0663</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>12218000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11873000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12032000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>11659000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>12866000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12185000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11944000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11377000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>11870000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>11542000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>10729000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>10744000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>12294000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12082000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11940000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>4989000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>12052000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10967000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>11673000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9917000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>11260000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>12181000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>11021000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>14200000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>10482000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>8536000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>11959000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>13783000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>11544000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>11801000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>11949000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1932000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>11057000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>11846000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>11297000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>16246000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>11282000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>10706000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>10340000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>7225000000</v>
+      </c>
+      <c r="C25">
         <v>7894000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>7552000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>7796000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7608000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8905000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>8165000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7770000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>7180000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>7678000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>7361000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6579000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6639000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>8180000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>7850000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>7709000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>637000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>7675000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>6617000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>7349000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5461000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>6988000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>8014000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>6962000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>10213000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>6540000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>4554000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7942000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>9744000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>7535000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>7821000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7960000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-2136000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>6890000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>7685000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7160000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>12063000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>7128000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>6555000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>6222000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>6698000000</v>
+      </c>
+      <c r="C26">
         <v>5024000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5315000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4711000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4737000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6554000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5949000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5378000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4718000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4504000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4839000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>4287000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5217000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5337000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4074000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5160000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2065000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5062000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>4246000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4666000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>18783000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3736000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4478000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3553000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>4600000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3747000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>831000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4430000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>5513000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4171000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>4353000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4338000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-2148000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3794000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>4324000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>5986000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>7916000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>5578000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>5198000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>4855000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>6698000000</v>
+      </c>
+      <c r="C27">
         <v>5024000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5315000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4711000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4737000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6554000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5949000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5378000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4718000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4504000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4839000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4287000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5217000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5337000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4074000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5160000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2065000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5062000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4246000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4666000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>18783000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3736000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4478000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3553000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>4600000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3747000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>831000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>4430000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5513000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>4171000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>4353000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4338000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-2148000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>3794000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4324000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5986000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>7916000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>5578000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>5198000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>4855000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.5932</v>
+      </c>
+      <c r="C28">
         <v>1.1956</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.2652</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.1214</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.1351</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.5823</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.4366</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.2987</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.1391</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.0879</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.1691</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.0358</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.2608</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.2898</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.9845</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.247</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.4977</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.2239</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.0268</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.1369</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>4.5982</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.9147999999999999</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.097</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.8704</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.1272</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.9186</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.2037</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.0858</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.3527</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.0243</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.0672</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1.0539</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-0.6956</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.9137999999999999</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1.0427</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1.7477</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2.7614</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1.9463</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1.8143</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1.694</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.5921</v>
+      </c>
+      <c r="C29">
         <v>1.1951</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.2649</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.1211</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.1342</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.5816</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.4359</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.2984</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.1385</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.0874</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.1686</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.0353</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.2599</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.2891</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.9843</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.2464</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.497</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.2227</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.0259</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.1361</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4.5926</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.9137</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.0957</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.8693</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.1255</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.917</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.2034</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.0845</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.3483</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.0228</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.0656</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.0527</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-0.6953</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.9122</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.0412</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1.7452</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>2.7519</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.9408</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1.8099</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1.6905</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>1.5932</v>
+      </c>
+      <c r="C30">
         <v>1.1956</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.2652</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.1214</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.1351</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.5823</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.4366</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.2987</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.1391</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.0879</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.1691</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.0358</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.2608</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.2898</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.9845</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.247</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.4977</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.2239</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.0268</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.1369</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4.5982</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.9147999999999999</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.097</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.8704</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.1272</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.9186</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.2037</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.0858</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.3527</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.0243</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.0672</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.0539</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.6956</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.9137999999999999</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.0427</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.7477</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2.7614</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.9463</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.8143</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.694</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.5921</v>
+      </c>
+      <c r="C31">
         <v>1.1951</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.2649</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.1211</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.1342</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.5816</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.4359</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.2984</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.1385</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.0874</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.1686</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.0353</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.2599</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.2891</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.9843</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.2464</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.497</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.2227</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.0259</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.1361</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4.5926</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.9137</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.0957</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.8693</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.1255</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.917</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.2034</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.0845</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.3483</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.0228</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.0656</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.0527</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-0.6953</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.9122</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.0412</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.7452</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2.7519</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.9408</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.8099</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.6905</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>4204000000</v>
-      </c>
-      <c r="C32">
-        <v>4202000000</v>
       </c>
       <c r="D32">
         <v>4202000000</v>
       </c>
       <c r="E32">
+        <v>4202000000</v>
+      </c>
+      <c r="F32">
         <v>4169000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4144000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>4143000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4142000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4143000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4142000000</v>
-      </c>
-      <c r="K32">
-        <v>4141000000</v>
       </c>
       <c r="L32">
         <v>4141000000</v>
@@ -4227,34 +4419,34 @@
         <v>4141000000</v>
       </c>
       <c r="N32">
+        <v>4141000000</v>
+      </c>
+      <c r="O32">
         <v>4140000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>4139000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4140000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>4141000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4140000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4139000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4107000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>4090000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>4089000000</v>
-      </c>
-      <c r="W32">
-        <v>4087000000</v>
       </c>
       <c r="X32">
         <v>4087000000</v>
@@ -4263,292 +4455,301 @@
         <v>4087000000</v>
       </c>
       <c r="Z32">
+        <v>4087000000</v>
+      </c>
+      <c r="AA32">
         <v>4086000000</v>
-      </c>
-      <c r="AA32">
-        <v>4085000000</v>
       </c>
       <c r="AB32">
         <v>4085000000</v>
       </c>
       <c r="AC32">
+        <v>4085000000</v>
+      </c>
+      <c r="AD32">
         <v>4083000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>4078000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>4085000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>4121000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>4157000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>4159000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>4153000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3430000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>2875000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2874000000</v>
-      </c>
-      <c r="AM32">
-        <v>2872000000</v>
       </c>
       <c r="AN32">
         <v>2872000000</v>
       </c>
+      <c r="AO32">
+        <v>2872000000</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.3568</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3514</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3586</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.3422</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.3909</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3609</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.3634</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.3279</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.3763</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.3791</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.3394</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.309</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.3737</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.3767</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.3716</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.1455</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.3696</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.3406</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.3674</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.2921</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.355</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.3987</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.3697</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.4391</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.3388</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.2796</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.3717</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.4024</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.3482</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3662</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3736</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.0582</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.3501</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3763</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.3666</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.523</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.3726</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.3594</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.3515</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.2537</v>
+      </c>
+      <c r="C34">
         <v>0.3076</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.3209</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.2033</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2459</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.3258</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.3182</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.2949</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.268</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2828</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.4837</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.2792</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.2587</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3317</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.273</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.2204</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.2361</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.3009</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.3039</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.2092</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.231</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.226</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.2596</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.0462</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.1226</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.1557</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.1772</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.233</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.3095</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.2871</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.2711</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.3179</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.2252</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.2645</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2435</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.2317</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.3358</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.3712</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.3229</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.256</v>
       </c>
     </row>
